--- a/Full_Pharmacy_Test_Cases.xlsx
+++ b/Full_Pharmacy_Test_Cases.xlsx
@@ -64,7 +64,7 @@
 3. Click Login</t>
   </si>
   <si>
-    <t xml:space="preserve">Email: user1@example.com
+    <t xml:space="preserve">Email: ahmed.maher.tester@gmail.com
 Password: correct123</t>
   </si>
   <si>
@@ -170,8 +170,36 @@
 3. Submit the form</t>
   </si>
   <si>
-    <t xml:space="preserve">Email: new@example.com
-Password: NewPass123</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Email: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ahmed.maher.tester@gmail.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Password: NewPass123</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Confirmation email sent, user can log in</t>
@@ -693,7 +721,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -768,6 +796,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1082,8 +1116,8 @@
   </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1130,7 +1164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="44.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1226,7 +1260,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="33.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -1866,6 +1900,9 @@
       <c r="B26" s="16"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1" display="ahmed.maher.tester@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Full_Pharmacy_Test_Cases.xlsx
+++ b/Full_Pharmacy_Test_Cases.xlsx
@@ -170,36 +170,8 @@
 3. Submit the form</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Email: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ahmed.maher.tester@gmail.com
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Password: NewPass123</t>
-    </r>
+    <t xml:space="preserve">Email: ahmed.maher.tester@gmail.com
+Password: newpass123</t>
   </si>
   <si>
     <t xml:space="preserve">Confirmation email sent, user can log in</t>
@@ -853,7 +825,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -896,6 +868,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1116,7 +1092,7 @@
   </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1125,7 +1101,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="48.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="59.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="40.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="53.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="49.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="30.47"/>
@@ -1164,7 +1140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="44.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="33.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1270,7 +1246,7 @@
       <c r="C5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="11" t="s">
         <v>38</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1352,7 +1328,7 @@
       <c r="I7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="12" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1381,7 +1357,7 @@
       <c r="I8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="12" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1413,7 +1389,7 @@
       <c r="I9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="12" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1445,7 +1421,7 @@
       <c r="I10" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="12" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1474,7 +1450,7 @@
       <c r="I11" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="12" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1689,7 +1665,7 @@
       <c r="I18" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="13" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1758,10 +1734,10 @@
       <c r="B21" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="15" t="s">
         <v>156</v>
       </c>
       <c r="E21" s="9" t="s">
@@ -1773,7 +1749,7 @@
       <c r="G21" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="12" t="s">
         <v>159</v>
       </c>
       <c r="J21" s="8" t="s">
@@ -1787,7 +1763,7 @@
       <c r="B22" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="16" t="s">
         <v>163</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -1897,12 +1873,9 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="16"/>
+      <c r="B26" s="17"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" display="ahmed.maher.tester@gmail.com"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
